--- a/Container/Data/TiereCustom.xlsx
+++ b/Container/Data/TiereCustom.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163E2743-77E8-42D5-9A3D-266C4C2ADEE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AD8E48-A5D6-4060-B77C-C06D11BC85A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7170" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agatha" sheetId="1" r:id="rId1"/>
     <sheet name="Plötze" sheetId="2" r:id="rId2"/>
+    <sheet name="Parcival" sheetId="3" r:id="rId3"/>
+    <sheet name="Moebius" sheetId="4" r:id="rId4"/>
+    <sheet name="Erwachtes Ross" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="126">
   <si>
     <t>AttributName</t>
   </si>
@@ -397,6 +400,21 @@
   </si>
   <si>
     <t>Maultier</t>
+  </si>
+  <si>
+    <t>Loyality</t>
+  </si>
+  <si>
+    <t>Schnabel</t>
+  </si>
+  <si>
+    <t>Klauen</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>Möve</t>
   </si>
 </sst>
 </file>
@@ -738,19 +756,19 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.68359375" customWidth="1"/>
-    <col min="2" max="2" width="7.1015625" customWidth="1"/>
-    <col min="3" max="3" width="13.578125" customWidth="1"/>
-    <col min="4" max="4" width="5.26171875" customWidth="1"/>
-    <col min="5" max="5" width="15.15625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.68359375" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +797,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -805,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -831,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -857,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -883,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -935,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -961,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -987,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1012,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1038,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1064,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1091,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1118,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -1145,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1172,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -1198,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -1251,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -1278,7 +1296,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -1305,7 +1323,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -1332,7 +1350,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -1359,7 +1377,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -1386,7 +1404,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -1408,7 +1426,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -1428,7 +1446,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -1450,7 +1468,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -1464,7 +1482,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -1472,7 +1490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -1489,13 +1507,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F19F48-6BD2-43F6-827C-36816D1A4E1E}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1542,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1550,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1602,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1628,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1654,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1706,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1732,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1757,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1783,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1809,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1836,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1863,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -1890,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1917,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -1943,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -1969,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -1996,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2023,7 +2041,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -2050,7 +2068,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -2077,7 +2095,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -2104,7 +2122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -2131,7 +2149,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -2153,7 +2171,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -2173,7 +2191,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2195,7 +2213,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -2209,7 +2227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -2217,7 +2235,2304 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663C91DE-E703-4A18-9D7D-9456B380F6EA}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1">
+        <v>400</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>280</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>100</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>100</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>180</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95C6C3F-BEDD-4C25-9E38-221C38EA29D2}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1">
+        <v>125</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>87.5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>31.25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>31.25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="1">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9AE912-9F25-4D76-930E-49209478D33C}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1">
+        <v>350</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>244.99999999999997</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>87.5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>87.5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="1">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>115</v>
       </c>

--- a/Container/Data/TiereCustom.xlsx
+++ b/Container/Data/TiereCustom.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AD8E48-A5D6-4060-B77C-C06D11BC85A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497855C7-0CFA-4521-A171-390DE35CDBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Agatha" sheetId="1" r:id="rId1"/>
-    <sheet name="Plötze" sheetId="2" r:id="rId2"/>
-    <sheet name="Parcival" sheetId="3" r:id="rId3"/>
-    <sheet name="Moebius" sheetId="4" r:id="rId4"/>
-    <sheet name="Erwachtes Ross" sheetId="5" r:id="rId5"/>
+    <sheet name="Mövogel" sheetId="6" r:id="rId1"/>
+    <sheet name="Moebius" sheetId="4" r:id="rId2"/>
+    <sheet name="Agatha" sheetId="1" r:id="rId3"/>
+    <sheet name="Plötze" sheetId="2" r:id="rId4"/>
+    <sheet name="Parcival" sheetId="3" r:id="rId5"/>
+    <sheet name="Erwachtes Ross" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="127">
   <si>
     <t>AttributName</t>
   </si>
@@ -415,6 +416,9 @@
   </si>
   <si>
     <t>Möve</t>
+  </si>
+  <si>
+    <t>Trainingswert</t>
   </si>
 </sst>
 </file>
@@ -749,26 +753,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065435FE-93B8-4E72-9704-55CA42AB4BF5}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,16 +797,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -822,19 +826,20 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -848,19 +853,20 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -874,13 +880,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -900,13 +907,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
@@ -926,13 +934,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>29</v>
@@ -952,25 +961,26 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>36</v>
@@ -978,25 +988,26 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="1">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>41</v>
@@ -1004,20 +1015,21 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="1">
         <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="1">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>44</v>
@@ -1029,19 +1041,20 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="1">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>48</v>
@@ -1055,8 +1068,9 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1067,7 +1081,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
@@ -1081,14 +1095,15 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="1">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>56</v>
@@ -1108,14 +1123,15 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="1">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>60</v>
@@ -1135,14 +1151,15 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="1">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>64</v>
@@ -1162,8 +1179,9 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1175,7 +1193,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>69</v>
@@ -1189,13 +1207,14 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="1">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>72</v>
@@ -1215,13 +1234,14 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>76</v>
@@ -1241,14 +1261,15 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="1">
         <f>$B$17*0.2</f>
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>80</v>
@@ -1268,20 +1289,21 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="1">
         <f>$B$17*0.7</f>
-        <v>244.99999999999997</v>
+        <v>87.5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -1295,20 +1317,21 @@
       <c r="H20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>90</v>
@@ -1322,14 +1345,15 @@
       <c r="H21" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>93</v>
@@ -1341,7 +1365,7 @@
         <v>94</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G22" t="s">
         <v>96</v>
@@ -1349,14 +1373,15 @@
       <c r="H22" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B23" s="1">
         <f>$B$17*0.25</f>
-        <v>87.5</v>
+        <v>31.25</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>98</v>
@@ -1376,14 +1401,15 @@
       <c r="H23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B24" s="1">
         <f>$B$17*0.25</f>
-        <v>87.5</v>
+        <v>31.25</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>102</v>
@@ -1403,8 +1429,9 @@
       <c r="H24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -1425,13 +1452,14 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>109</v>
@@ -1445,57 +1473,65 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>110</v>
       </c>
       <c r="B27" s="2">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D27" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
         <v>112</v>
       </c>
       <c r="F27" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>113</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
         <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>114</v>
       </c>
       <c r="B29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>115</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1504,16 +1540,1561 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95C6C3F-BEDD-4C25-9E38-221C38EA29D2}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1">
+        <v>125</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>87.5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>31.25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>31.25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="1">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1">
+        <v>350</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>244.99999999999997</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="1">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>87.5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>87.5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="1">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F19F48-6BD2-43F6-827C-36816D1A4E1E}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:J31"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +3123,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1568,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1594,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1620,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1672,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1698,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1724,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1750,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1775,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1801,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1827,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1854,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1881,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -1908,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1935,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -1961,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -1987,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -2014,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2041,7 +3622,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -2068,7 +3649,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -2095,7 +3676,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -2122,7 +3703,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -2149,7 +3730,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -2171,7 +3752,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -2191,7 +3772,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2213,7 +3794,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -2227,15 +3808,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>114</v>
       </c>
       <c r="B29">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -2248,17 +3832,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663C91DE-E703-4A18-9D7D-9456B380F6EA}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +3871,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2314,7 +3898,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2341,7 +3925,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2368,7 +3952,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2395,7 +3979,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2422,7 +4006,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2449,7 +4033,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2476,7 +4060,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2503,7 +4087,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2529,7 +4113,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -2556,7 +4140,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2583,7 +4167,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -2611,7 +4195,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -2639,7 +4223,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -2667,7 +4251,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -2695,7 +4279,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -2722,7 +4306,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,7 +4333,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -2777,7 +4361,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2805,7 +4389,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -2833,7 +4417,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -2861,7 +4445,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -2889,7 +4473,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -2917,7 +4501,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -2940,7 +4524,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -2961,7 +4545,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2984,7 +4568,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -2998,15 +4582,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>114</v>
       </c>
       <c r="B29">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -3019,27 +4606,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95C6C3F-BEDD-4C25-9E38-221C38EA29D2}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9AE912-9F25-4D76-930E-49209478D33C}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3064,16 +4641,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -3093,20 +4670,19 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -3120,20 +4696,19 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -3147,14 +4722,13 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -3174,14 +4748,13 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
@@ -3201,14 +4774,13 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>29</v>
@@ -3228,26 +4800,25 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>36</v>
@@ -3255,26 +4826,25 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="1">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>41</v>
@@ -3282,21 +4852,20 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="1">
         <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="1">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>44</v>
@@ -3308,20 +4877,19 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>48</v>
@@ -3335,9 +4903,8 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -3348,7 +4915,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
@@ -3362,15 +4929,14 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="1">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>56</v>
@@ -3390,15 +4956,14 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="1">
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>60</v>
@@ -3418,15 +4983,14 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="1">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>64</v>
@@ -3446,9 +5010,8 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -3460,7 +5023,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>69</v>
@@ -3474,14 +5037,13 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="1">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>72</v>
@@ -3501,14 +5063,13 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>76</v>
@@ -3528,15 +5089,14 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="1">
         <f>$B$17*0.2</f>
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>80</v>
@@ -3556,21 +5116,20 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="1">
         <f>$B$17*0.7</f>
-        <v>87.5</v>
+        <v>244.99999999999997</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3584,21 +5143,20 @@
       <c r="H20" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>90</v>
@@ -3612,15 +5170,14 @@
       <c r="H21" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>93</v>
@@ -3632,7 +5189,7 @@
         <v>94</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
         <v>96</v>
@@ -3640,15 +5197,14 @@
       <c r="H22" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B23" s="1">
         <f>$B$17*0.25</f>
-        <v>31.25</v>
+        <v>87.5</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>98</v>
@@ -3668,15 +5224,14 @@
       <c r="H23" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B24" s="1">
         <f>$B$17*0.25</f>
-        <v>31.25</v>
+        <v>87.5</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>102</v>
@@ -3696,9 +5251,8 @@
       <c r="H24" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
@@ -3719,14 +5273,13 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>109</v>
@@ -3740,799 +5293,55 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>110</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D27" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
         <v>112</v>
       </c>
       <c r="F27" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>113</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="E28" t="s">
         <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>114</v>
       </c>
       <c r="B29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9AE912-9F25-4D76-930E-49209478D33C}">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1">
-        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="1">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="1">
-        <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1">
-        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="1">
-        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="1">
-        <f>B8+B9</f>
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="1">
-        <v>350</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="1">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="1">
-        <f>$B$17*0.2</f>
-        <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="1">
-        <f>$B$17*0.7</f>
-        <v>244.99999999999997</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="1">
-        <v>25</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
-        <v>70</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="1">
-        <v>35</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="1">
-        <f>$B$17*0.25</f>
-        <v>87.5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="1">
-        <f>$B$17*0.25</f>
-        <v>87.5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="1">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28">
-        <v>200</v>
-      </c>
-      <c r="E28" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>115</v>
       </c>

--- a/Container/Data/TiereCustom.xlsx
+++ b/Container/Data/TiereCustom.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emilm\Dropbox\Rpg\Container\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A1777F-1036-44FB-8DB8-E785A6C0D41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="7"/>
+    <workbookView xWindow="1515" yWindow="240" windowWidth="25860" windowHeight="14625" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Moebius" sheetId="4" r:id="rId1"/>
@@ -15,12 +21,10 @@
     <sheet name="Ratte Bio Waffe" sheetId="9" r:id="rId6"/>
     <sheet name="Mokka" sheetId="10" r:id="rId7"/>
     <sheet name="Wildschwein" sheetId="11" r:id="rId8"/>
+    <sheet name="Boris" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -31,14 +35,18 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="139">
   <si>
     <t>AttributName</t>
   </si>
@@ -449,12 +457,18 @@
   </si>
   <si>
     <t>Fingerfertigkeit</t>
+  </si>
+  <si>
+    <t>Pranke</t>
+  </si>
+  <si>
+    <t>Bär</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,16 +518,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -783,33 +796,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +851,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -865,7 +878,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -892,7 +905,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -919,7 +932,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -946,7 +959,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -973,7 +986,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1000,7 +1013,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1027,7 +1040,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1054,7 +1067,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1080,7 +1093,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1107,14 +1120,14 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -1134,7 +1147,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -1142,7 +1155,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -1162,7 +1175,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -1170,7 +1183,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -1190,7 +1203,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1198,7 +1211,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -1218,7 +1231,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -1226,7 +1239,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -1246,14 +1259,14 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>125</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -1273,14 +1286,14 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -1300,7 +1313,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -1308,7 +1321,7 @@
         <f>$B$17*0.2</f>
         <v>25</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -1328,7 +1341,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -1336,7 +1349,7 @@
         <f>$B$17*0.7</f>
         <v>87.5</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -1356,7 +1369,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -1364,7 +1377,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>25</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -1384,7 +1397,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -1392,7 +1405,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -1412,7 +1425,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -1420,7 +1433,7 @@
         <f>$B$17*0.25</f>
         <v>31.25</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -1440,7 +1453,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -1448,7 +1461,7 @@
         <f>$B$17*0.25</f>
         <v>31.25</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -1468,14 +1481,14 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -1491,14 +1504,14 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -1512,14 +1525,14 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -1530,7 +1543,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -1544,7 +1557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -1558,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -1577,26 +1590,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,11 +1634,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1651,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1677,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1729,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1755,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1781,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1807,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1833,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1858,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1884,14 +1897,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -1910,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -1918,7 +1931,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -1937,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -1945,7 +1958,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -1964,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1972,7 +1985,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -1991,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -1999,7 +2012,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -2018,14 +2031,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>350</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -2044,14 +2057,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>35</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -2070,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -2078,7 +2091,7 @@
         <f>$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -2097,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -2105,7 +2118,7 @@
         <f>$B$17*0.7</f>
         <v>244.99999999999997</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -2124,7 +2137,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -2132,7 +2145,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -2151,7 +2164,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -2159,7 +2172,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -2178,7 +2191,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -2186,7 +2199,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -2205,7 +2218,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -2213,7 +2226,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -2232,14 +2245,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -2254,14 +2267,14 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>115</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -2274,14 +2287,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>1.35</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -2291,14 +2304,14 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>200</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -2306,7 +2319,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -2320,7 +2333,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -2334,7 +2347,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>126</v>
       </c>
@@ -2343,7 +2356,7 @@
         <v>9581.25</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>127</v>
       </c>
@@ -2362,16 +2375,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C28"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2396,11 +2409,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2426,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2452,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2478,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2530,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2556,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2582,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2608,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2633,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -2659,14 +2672,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -2685,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,7 +2706,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -2712,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2720,7 +2733,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -2739,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2747,7 +2760,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -2766,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -2774,7 +2787,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -2793,14 +2806,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>350</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -2819,14 +2832,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>35</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -2845,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -2853,7 +2866,7 @@
         <f>$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -2872,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -2880,7 +2893,7 @@
         <f>$B$17*0.7</f>
         <v>244.99999999999997</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -2899,7 +2912,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -2907,7 +2920,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>70</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -2926,7 +2939,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -2934,7 +2947,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -2953,7 +2966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -2961,7 +2974,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -2980,7 +2993,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -2988,7 +3001,7 @@
         <f>$B$17*0.25</f>
         <v>87.5</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -3007,14 +3020,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -3029,14 +3042,14 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>115</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -3049,14 +3062,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>1.35</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -3066,14 +3079,14 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>200</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -3081,7 +3094,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -3095,7 +3108,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -3109,7 +3122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>126</v>
       </c>
@@ -3118,7 +3131,7 @@
         <v>9581.25</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>127</v>
       </c>
@@ -3137,19 +3150,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3178,7 +3191,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3205,7 +3218,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3232,7 +3245,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3259,7 +3272,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3286,7 +3299,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3313,7 +3326,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3340,7 +3353,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3367,7 +3380,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -3394,7 +3407,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -3420,7 +3433,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -3447,14 +3460,14 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -3474,7 +3487,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -3482,7 +3495,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -3502,7 +3515,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -3510,7 +3523,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -3530,7 +3543,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -3538,7 +3551,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -3558,7 +3571,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -3566,7 +3579,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -3586,14 +3599,14 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>600</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -3613,14 +3626,14 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -3640,7 +3653,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -3648,7 +3661,7 @@
         <f>$B$17*0.2</f>
         <v>120</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -3668,7 +3681,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -3676,7 +3689,7 @@
         <f>$B$17*0.7</f>
         <v>420</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -3696,7 +3709,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -3704,7 +3717,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>120</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -3724,7 +3737,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -3732,7 +3745,7 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -3752,7 +3765,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -3760,7 +3773,7 @@
         <f>$B$17*0.25</f>
         <v>150</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -3780,7 +3793,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -3788,7 +3801,7 @@
         <f>$B$17*0.25</f>
         <v>150</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -3808,14 +3821,14 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -3831,14 +3844,14 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -3852,14 +3865,14 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>2.5</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -3870,14 +3883,14 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>210</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -3885,7 +3898,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -3899,7 +3912,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -3913,7 +3926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>126</v>
       </c>
@@ -3922,7 +3935,7 @@
         <v>9581.25</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>127</v>
       </c>
@@ -3941,19 +3954,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3982,7 +3995,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4009,7 +4022,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4036,7 +4049,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4063,7 +4076,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4090,7 +4103,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4117,7 +4130,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4144,7 +4157,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -4171,7 +4184,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -4198,7 +4211,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -4224,7 +4237,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -4251,14 +4264,14 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -4278,7 +4291,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -4286,7 +4299,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -4306,7 +4319,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -4314,7 +4327,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -4334,7 +4347,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -4342,7 +4355,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -4362,7 +4375,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -4370,7 +4383,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -4390,14 +4403,14 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>400</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -4417,14 +4430,14 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>28</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -4444,7 +4457,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -4452,7 +4465,7 @@
         <f>$B$17*0.2</f>
         <v>80</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -4472,7 +4485,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -4480,7 +4493,7 @@
         <f>$B$17*0.7</f>
         <v>280</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -4500,7 +4513,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -4508,7 +4521,7 @@
         <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
         <v>80</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -4528,7 +4541,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -4536,7 +4549,7 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -4556,7 +4569,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -4564,7 +4577,7 @@
         <f>$B$17*0.25</f>
         <v>100</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -4584,7 +4597,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -4592,7 +4605,7 @@
         <f>$B$17*0.25</f>
         <v>100</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -4612,14 +4625,14 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -4635,14 +4648,14 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -4656,14 +4669,14 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>1.5</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -4674,14 +4687,14 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>180</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -4689,7 +4702,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -4700,7 +4713,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -4719,16 +4732,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4757,7 +4770,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4783,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4809,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4835,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4861,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4887,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4913,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -4939,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -4963,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -4988,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -5014,14 +5027,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -5040,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -5048,7 +5061,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -5067,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -5075,7 +5088,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>3</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -5094,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -5102,7 +5115,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -5121,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -5129,7 +5142,7 @@
         <f>B8+B9</f>
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -5148,14 +5161,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>50</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -5174,14 +5187,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>50</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -5200,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -5208,7 +5221,7 @@
         <f>$B$17*0.2</f>
         <v>10</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -5227,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -5235,7 +5248,7 @@
         <f>$B$17*0.7</f>
         <v>35</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -5254,7 +5267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -5262,7 +5275,7 @@
         <f>$B$17*0.2</f>
         <v>10</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -5281,7 +5294,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -5289,7 +5302,7 @@
         <f>$B$17*0.2</f>
         <v>10</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -5308,7 +5321,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -5316,7 +5329,7 @@
         <f>$B$17*0.25</f>
         <v>12.5</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -5335,7 +5348,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -5343,7 +5356,7 @@
         <f>$B$17*0.25</f>
         <v>12.5</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -5362,14 +5375,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -5388,14 +5401,14 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -5408,14 +5421,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -5425,14 +5438,14 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>50</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -5440,7 +5453,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -5454,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -5468,7 +5481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>126</v>
       </c>
@@ -5477,7 +5490,7 @@
         <v>1147.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>127</v>
       </c>
@@ -5496,22 +5509,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5542,7 +5555,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5571,7 +5584,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -5600,7 +5613,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -5629,7 +5642,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -5658,7 +5671,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -5687,7 +5700,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -5716,7 +5729,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -5745,7 +5758,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -5772,7 +5785,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -5800,7 +5813,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -5829,14 +5842,14 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -5858,7 +5871,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -5866,7 +5879,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -5888,7 +5901,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -5896,7 +5909,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -5918,7 +5931,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -5926,7 +5939,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -5948,7 +5961,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -5956,7 +5969,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -5978,14 +5991,14 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>200</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -6007,14 +6020,14 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -6036,7 +6049,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -6044,7 +6057,7 @@
         <f>$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -6066,7 +6079,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -6074,7 +6087,7 @@
         <f>$B$17*0.7</f>
         <v>140</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -6096,7 +6109,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -6104,7 +6117,7 @@
         <f>$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -6126,7 +6139,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -6134,7 +6147,7 @@
         <f>$B$17*0.2</f>
         <v>40</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -6156,7 +6169,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -6164,7 +6177,7 @@
         <f>$B$17*0.25</f>
         <v>50</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -6186,7 +6199,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -6194,7 +6207,7 @@
         <f>$B$17*0.25</f>
         <v>50</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -6216,14 +6229,14 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -6245,14 +6258,14 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -6268,14 +6281,14 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>1.5</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -6288,14 +6301,14 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>45</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -6303,7 +6316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -6317,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -6331,7 +6344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>126</v>
       </c>
@@ -6340,7 +6353,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>127</v>
       </c>
@@ -6359,16 +6372,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6397,7 +6410,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -6423,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -6449,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -6475,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -6501,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -6527,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -6553,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -6579,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -6603,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -6628,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -6654,14 +6667,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D12" s="1">
@@ -6680,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -6688,7 +6701,7 @@
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="1">
@@ -6707,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -6715,7 +6728,7 @@
         <f>ROUNDUP((B6+B6+B4)/3,0)</f>
         <v>6</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="1">
@@ -6734,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -6742,7 +6755,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="1">
@@ -6761,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -6769,7 +6782,7 @@
         <f>B8+B9</f>
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D16" s="1">
@@ -6788,14 +6801,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="1">
         <v>300</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="1">
@@ -6814,14 +6827,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D18" s="1">
@@ -6840,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -6848,7 +6861,7 @@
         <f>$B$17*0.2</f>
         <v>60</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="1">
@@ -6867,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -6875,7 +6888,7 @@
         <f>$B$17*0.7</f>
         <v>210</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="1">
@@ -6894,7 +6907,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -6902,7 +6915,7 @@
         <f>$B$17*0.2</f>
         <v>60</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="1">
@@ -6921,7 +6934,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,7 +6942,7 @@
         <f>$B$17*0.2</f>
         <v>60</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1">
@@ -6948,7 +6961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -6956,7 +6969,7 @@
         <f>$B$17*0.25</f>
         <v>75</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="1">
@@ -6975,7 +6988,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -6983,7 +6996,7 @@
         <f>$B$17*0.25</f>
         <v>75</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="1">
@@ -7002,14 +7015,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D25" s="1">
@@ -7028,14 +7041,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="1">
@@ -7048,14 +7061,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="E27" t="s">
         <v>110</v>
       </c>
@@ -7065,14 +7078,14 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
       <c r="B28">
         <v>25</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="E28" t="s">
         <v>116</v>
       </c>
@@ -7080,7 +7093,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -7094,7 +7107,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -7108,7 +7121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>126</v>
       </c>
@@ -7117,7 +7130,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>127</v>
       </c>
@@ -7133,4 +7146,772 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D49EAD4-790C-4025-A3A5-862BD8148DD2}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B8+B9</f>
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1">
+        <v>600</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$B$17*0.2</f>
+        <v>120</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B$17*0.7</f>
+        <v>420</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="1">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:B22" si="0">$B$17*0.2</f>
+        <v>120</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1">
+        <f>$B$17*0.25</f>
+        <v>150</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$B$17*0.25</f>
+        <v>150</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28">
+        <v>150</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31">
+        <f>SUM(B2:B7)*75*(IF(F28="Groß",1.75,IF(F28="Mittel",1,IF(F28="Klein",0.3,1))))+F32</f>
+        <v>9318.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>